--- a/testdatas/machineroominfo.xlsx
+++ b/testdatas/machineroominfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="新建机房信息" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,9 @@
     <t>{"error_msg":"请输入机房名称"}</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>add-machineroom-005</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t>{"success_msg":"编辑机房信息成功"}</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>edit-machineroom-002</t>
@@ -188,9 +188,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,37 +201,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,16 +292,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,69 +330,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,31 +354,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,79 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,67 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,26 +548,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,26 +587,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,7 +615,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -665,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1231,97 +1231,97 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" ht="40.5" spans="1:6">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" ht="40.5" spans="1:6">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" ht="40.5" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -1338,7 +1338,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1374,19 +1374,19 @@
     </row>
     <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F2"/>
     </row>
@@ -1401,10 +1401,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F3"/>
     </row>
@@ -1419,10 +1419,10 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="6" ht="40.5" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -1458,43 +1458,43 @@
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F9"/>
     </row>

--- a/testdatas/machineroominfo.xlsx
+++ b/testdatas/machineroominfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="新建机房信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>case_id</t>
   </si>
@@ -62,6 +62,9 @@
     <t>{"machineroom_name":"test0002","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>add-machineroom-003</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t>{"success_msg":"编辑机房信息成功"}</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>edit-machineroom-002</t>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,52 +201,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +283,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -268,78 +298,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,31 +354,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,150 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,45 +545,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,6 +559,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,15 +607,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -645,6 +615,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -665,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,19 +1125,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" ht="43.2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" ht="43.2" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1195,137 +1195,182 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" ht="28.8" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" ht="40.5" spans="1:6">
+    <row r="5" ht="43.2" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" ht="27" spans="1:6">
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" ht="27" spans="1:6">
+    <row r="7" ht="28.8" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" ht="40.5" spans="1:6">
+    <row r="8" ht="43.2" spans="1:6">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" ht="40.5" spans="1:6">
+    <row r="9" ht="43.2" spans="1:6">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" ht="40.5" spans="1:5">
+    <row r="10" ht="43.2" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1338,17 +1383,17 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1372,25 +1417,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" ht="43.2" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" ht="40.5" spans="1:6">
+    <row r="3" ht="43.2" spans="1:6">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1401,16 +1446,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" ht="40.5" spans="1:6">
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -1419,16 +1464,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" ht="40.5" spans="1:6">
+    <row r="5" ht="43.2" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1440,13 +1485,13 @@
         <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" ht="40.5" spans="1:6">
+    <row r="6" ht="43.2" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -1458,43 +1503,43 @@
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F9"/>
     </row>

--- a/testdatas/machineroominfo.xlsx
+++ b/testdatas/machineroominfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>case_id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>testresult</t>
   </si>
   <si>
+    <t>reason</t>
+  </si>
+  <si>
     <t>add-machineroom-001</t>
   </si>
   <si>
@@ -44,15 +47,12 @@
     <t>{"machineroom_name":"test0001","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
-    <t>{"success_msg":"新建机房成功"}</t>
+    <t>{"msg":"新建机房成功"}</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>add-machineroom-002</t>
   </si>
   <si>
@@ -62,6 +62,9 @@
     <t>{"machineroom_name":"test0002","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>add-machineroom-003</t>
   </si>
   <si>
@@ -80,10 +83,7 @@
     <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
-    <t>{"error_msg":"请输入机房名称"}</t>
-  </si>
-  <si>
-    <t>False</t>
+    <t>{"errmsg":"请输入机房名称"}</t>
   </si>
   <si>
     <t>add-machineroom-005</t>
@@ -95,7 +95,7 @@
     <t>{"machineroom_name":"test0005","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
-    <t>{"error_msg":"请输入机房所在地"}</t>
+    <t>{"errmsg":"请输入机房所在地"}</t>
   </si>
   <si>
     <t>add-machineroom-006</t>
@@ -107,7 +107,7 @@
     <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
-    <t>{"error_msg1":"请输入机房名称","error_msg2":"请输入机房所在地"}</t>
+    <t>{"errmsg1":"请输入机房名称","errmsg2":"请输入机房所在地"}</t>
   </si>
   <si>
     <t>add-machineroom-007</t>
@@ -119,7 +119,7 @@
     <t>{"machineroom_name":"test0001","address":"太阳系地球1号1","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
   </si>
   <si>
-    <t>{"error_msg":"1062"}</t>
+    <t>{"errmsg":"1062"}</t>
   </si>
   <si>
     <t>add-machineroom-008</t>
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,104 +202,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,33 +322,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,19 +354,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +468,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,85 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,60 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -568,30 +577,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,9 +598,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -665,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,10 +1125,222 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" ht="27" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:6">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" ht="27" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1163,217 +1375,6 @@
     </row>
     <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="27" spans="1:6">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="27" spans="1:6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="27" spans="1:6">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:6">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:6">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
-      <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
@@ -1386,7 +1387,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2"/>
     </row>
@@ -1404,13 +1405,13 @@
         <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -1422,13 +1423,13 @@
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1440,7 +1441,7 @@
         <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5"/>
     </row>
@@ -1458,44 +1459,32 @@
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
+      <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9"/>
     </row>
   </sheetData>

--- a/testdatas/machineroominfo.xlsx
+++ b/testdatas/machineroominfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="新建机房信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>case_id</t>
   </si>
@@ -29,25 +29,25 @@
     <t>expect</t>
   </si>
   <si>
+    <t>text_location</t>
+  </si>
+  <si>
     <t>execute</t>
   </si>
   <si>
-    <t>testresult</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
     <t>add-machineroom-001</t>
   </si>
   <si>
     <t>全部字段都正常填写</t>
   </si>
   <si>
-    <t>{"machineroom_name":"test0001","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"msg":"新建机房成功"}</t>
+    <t>{"machineroom_name":"machineroom0001","address":"太阳系地球111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"新建机房信息成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='新建机房信息成功']"}</t>
   </si>
   <si>
     <t>True</t>
@@ -59,118 +59,133 @@
     <t>不勾选算力机是否可调度复选框</t>
   </si>
   <si>
-    <t>{"machineroom_name":"test0002","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
+    <t>{"machineroom_name":"machineroom0002","address":"太平洋222","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-003</t>
+  </si>
+  <si>
+    <t>域名为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"machineroom0003","address":"太平洋333","domain":"","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-004</t>
+  </si>
+  <si>
+    <t>机房名称为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入机房名称"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入机房名称']"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-005</t>
+  </si>
+  <si>
+    <t>机房地址为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"machineroom0005","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入机房所在地"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入机房所在地']"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-006</t>
+  </si>
+  <si>
+    <t>机房名和地址都为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg1":"请输入机房名称","msg2":"请输入机房所在地"}</t>
+  </si>
+  <si>
+    <t>{"xpath1":"//div[text()='请输入机房名称']","xpath2":"//div[text()='请输入机房所在地']"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-007</t>
+  </si>
+  <si>
+    <t>机房名称重复</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"machineroom0001","address":"太阳系地球1111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"机房已存在"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='机房已存在']"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-008</t>
+  </si>
+  <si>
+    <t>机房地址重复</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"machineroom0004","address":"太阳系地球444","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-machineroom-009</t>
+  </si>
+  <si>
+    <t>备注为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"machineroom0006","address":"太阳系地球666","domain":"https://opttest.arsyun.com","comment":"","check":False,"is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-001</t>
+  </si>
+  <si>
+    <t>修改机房名称</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"rename-machineroom0001","address":"太阳系地球1号","domain":"https://optmachineroom.arsyun.com","comment":"machineroom by terry","check":False}</t>
+  </si>
+  <si>
+    <t>{"success_msg":"编辑机房信息成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='编辑机房信息成功']"}</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>add-machineroom-003</t>
-  </si>
-  <si>
-    <t>域名为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"test0003","address":"太平洋","domain":"","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-004</t>
-  </si>
-  <si>
-    <t>机房名称为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"请输入机房名称"}</t>
-  </si>
-  <si>
-    <t>add-machineroom-005</t>
-  </si>
-  <si>
-    <t>机房地址为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"test0005","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"请输入机房所在地"}</t>
-  </si>
-  <si>
-    <t>add-machineroom-006</t>
-  </si>
-  <si>
-    <t>机房名和地址都为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"errmsg1":"请输入机房名称","errmsg2":"请输入机房所在地"}</t>
-  </si>
-  <si>
-    <t>add-machineroom-007</t>
-  </si>
-  <si>
-    <t>机房名称重复</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"test0001","address":"太阳系地球1号1","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"1062"}</t>
-  </si>
-  <si>
-    <t>add-machineroom-008</t>
-  </si>
-  <si>
-    <t>机房地址重复</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"test0004","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>add-machineroom-009</t>
-  </si>
-  <si>
-    <t>备注为空</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"test0006","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","comment":"","check":False}</t>
-  </si>
-  <si>
-    <t>edit-machineroom-001</t>
-  </si>
-  <si>
-    <t>修改机房名称</t>
-  </si>
-  <si>
-    <t>{"machineroom_name":"rename-test0001","address":"太阳系地球1号","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"编辑机房信息成功"}</t>
-  </si>
-  <si>
     <t>edit-machineroom-002</t>
   </si>
   <si>
     <t>修改机房地址</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-test0001","address":"修改后太阳系地球2号","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False}</t>
+    <t>{"machineroom_name":"rename-machineroom0001","address":"修改后太阳系地球2号","domain":"https://optmachineroom.arsyun.com","comment":"machineroom by terry","check":False}</t>
   </si>
   <si>
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-test0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","comment":"test by terry","check":False}</t>
+    <t>{"machineroom_name":"rename-machineroom0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","comment":"machineroom by terry","check":False}</t>
   </si>
   <si>
     <t>勾选算力机可调度</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-test0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","comment":"test by terry","check":True}</t>
+    <t>{"machineroom_name":"rename-machineroom0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","comment":"machineroom by terry","check":True}</t>
   </si>
   <si>
     <t>{"enable": True}</t>
@@ -187,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,14 +217,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,25 +261,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,94 +330,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +375,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,163 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +576,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,41 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -645,6 +640,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -665,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1143,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1136,9 +1151,10 @@
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:7">
@@ -1160,29 +1176,30 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1193,50 +1210,59 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:7">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="27" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:7">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="27" spans="1:6">
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1249,84 +1275,100 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="27" spans="1:6">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:6">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:7">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:7">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1340,17 +1382,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:6">
@@ -1375,93 +1417,99 @@
     </row>
     <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2"/>
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3"/>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
+        <v>57</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" ht="40.5" spans="1:6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6"/>
+        <v>59</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7"/>

--- a/testdatas/machineroominfo.xlsx
+++ b/testdatas/machineroominfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>case_id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>全部字段都正常填写</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0001","address":"太阳系地球111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0001","address":"太阳系地球111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"True","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg":"新建机房信息成功"}</t>
@@ -59,7 +59,7 @@
     <t>不勾选算力机是否可调度复选框</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0002","address":"太平洋222","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0002","address":"太平洋222","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>add-machineroom-003</t>
@@ -68,7 +68,7 @@
     <t>域名为空</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0003","address":"太平洋333","domain":"","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0003","address":"太平洋333","domain":"","comment":"test by terry","check":"True","is_save":"True"}</t>
   </si>
   <si>
     <t>add-machineroom-004</t>
@@ -77,7 +77,7 @@
     <t>机房名称为空</t>
   </si>
   <si>
-    <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"","address":"太平洋","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg":"请输入机房名称"}</t>
@@ -92,7 +92,7 @@
     <t>机房地址为空</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0005","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0005","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg":"请输入机房所在地"}</t>
@@ -107,7 +107,7 @@
     <t>机房名和地址都为空</t>
   </si>
   <si>
-    <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"","address":"","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg1":"请输入机房名称","msg2":"请输入机房所在地"}</t>
@@ -122,7 +122,7 @@
     <t>机房名称重复</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0001","address":"太阳系地球1111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0001","address":"太阳系地球1111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg":"机房已存在"}</t>
@@ -137,7 +137,7 @@
     <t>机房地址重复</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0004","address":"太阳系地球444","domain":"https://opttest.arsyun.com","comment":"test by terry","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0004","address":"太阳系地球444","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>add-machineroom-009</t>
@@ -146,7 +146,7 @@
     <t>备注为空</t>
   </si>
   <si>
-    <t>{"machineroom_name":"machineroom0006","address":"太阳系地球666","domain":"https://opttest.arsyun.com","comment":"","check":False,"is_save":"True"}</t>
+    <t>{"machineroom_name":"machineroom0006","address":"太阳系地球666","domain":"https://opttest.arsyun.com","comment":"","check":"False","is_save":"True"}</t>
   </si>
   <si>
     <t>edit-machineroom-001</t>
@@ -155,46 +155,94 @@
     <t>修改机房名称</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-machineroom0001","address":"太阳系地球1号","domain":"https://optmachineroom.arsyun.com","comment":"machineroom by terry","check":False}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"编辑机房信息成功"}</t>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"True","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"编辑机房信息成功"}</t>
   </si>
   <si>
     <t>{"xpath":"//span[text()='编辑机房信息成功']"}</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>edit-machineroom-002</t>
   </si>
   <si>
     <t>修改机房地址</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-machineroom0001","address":"修改后太阳系地球2号","domain":"https://optmachineroom.arsyun.com","comment":"machineroom by terry","check":False}</t>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"https://opttest.arsyun.com","comment":"test by terry","check":"True","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-003</t>
   </si>
   <si>
     <t>修改域名</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-machineroom0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","comment":"machineroom by terry","check":False}</t>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"https://modify-opttest.arsyun.com","comment":"test by terry","check":"True","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-004</t>
+  </si>
+  <si>
+    <t>修改备注</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"https://modify-opttest.arsyun.com","comment":"test by terry modify","check":"True","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-005</t>
   </si>
   <si>
     <t>勾选算力机可调度</t>
   </si>
   <si>
-    <t>{"machineroom_name":"rename-machineroom0001","address":"修改后太阳系地球2号","domain":"https://wwwwwww.arsyun.com","comment":"machineroom by terry","check":True}</t>
-  </si>
-  <si>
-    <t>{"enable": True}</t>
+    <t>edit-machineroom-006</t>
   </si>
   <si>
     <t>去勾选算力机可调度</t>
   </si>
   <si>
-    <t>{"enable": False}</t>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"https://modify-opttest.arsyun.com","comment":"test by terry modify","check":"False","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-007</t>
+  </si>
+  <si>
+    <t>机房名为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"","address":"太阳系地球111-modify","domain":"https://modify-opttest.arsyun.com","comment":"test by terry modify","check":"False","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-008</t>
+  </si>
+  <si>
+    <t>机房所在地址为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"","domain":"https://modify-opttest.arsyun.com","comment":"test by terry modify","check":"False","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-009</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"","comment":"test by terry modify","check":"False","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-010</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"https://modify-opttest.arsyun.com","comment":"","check":"False","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-machineroom-011</t>
+  </si>
+  <si>
+    <t>域名和备注都为空</t>
+  </si>
+  <si>
+    <t>{"machineroom_name":"modify-machineroom0001","address":"太阳系地球111-modify","domain":"","comment":"","check":"False","is_save":"True"}</t>
   </si>
 </sst>
 </file>
@@ -202,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -217,9 +265,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,31 +384,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,97 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -369,13 +417,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,37 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,127 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,39 +608,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,6 +622,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +670,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,22 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -680,146 +728,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1143,7 +1197,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1185,7 +1239,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1194,7 +1248,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -1206,7 +1260,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
@@ -1215,7 +1269,7 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -1227,7 +1281,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
@@ -1236,7 +1290,7 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -1248,7 +1302,7 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -1257,7 +1311,7 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -1269,7 +1323,7 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
@@ -1278,7 +1332,7 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -1290,16 +1344,16 @@
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -1311,7 +1365,7 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
@@ -1320,7 +1374,7 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -1332,7 +1386,7 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
@@ -1341,7 +1395,7 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -1353,7 +1407,7 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D10" t="s">
@@ -1362,13 +1416,13 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="5:6">
       <c r="E11"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1379,10 +1433,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1419,10 +1473,10 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
@@ -1431,19 +1485,19 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -1451,18 +1505,18 @@
       <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D4" t="s">
@@ -1471,69 +1525,169 @@
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:6">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="2"/>
-      <c r="D7"/>
-      <c r="E7" s="3"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="2"/>
-      <c r="D8"/>
-      <c r="E8" s="3"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="2"/>
-      <c r="D9"/>
-      <c r="E9" s="3"/>
-      <c r="F9"/>
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:6">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:6">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:6">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdatas/machineroominfo.xlsx
+++ b/testdatas/machineroominfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140"/>
+    <workbookView windowWidth="28800" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="新建机房信息" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -265,7 +265,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,15 +306,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +337,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -308,82 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -417,25 +417,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,19 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,25 +501,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,78 +573,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -580,24 +598,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +608,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -637,24 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,6 +657,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -728,16 +728,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -749,10 +749,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -764,97 +767,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1435,8 +1435,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
